--- a/YouTube Live 13Jun2020/Creating_Dashboard_Building_Blocks_StartingFile.xlsx
+++ b/YouTube Live 13Jun2020/Creating_Dashboard_Building_Blocks_StartingFile.xlsx
@@ -8,30 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\YT_Excel_Dashboarding\YouTube Live 13Jun2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA0D4DAA-2295-4A1B-AE84-3D0222ACE377}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDD8545-E022-43CC-8781-862C624507EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1Raw_Orders" sheetId="1" r:id="rId1"/>
-    <sheet name="1Raw_Products" sheetId="2" r:id="rId2"/>
-    <sheet name="1Raw_Property" sheetId="3" r:id="rId3"/>
-    <sheet name="1Raw_Orders_Refresh" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="6Dashboard_Goal" sheetId="6" r:id="rId1"/>
+    <sheet name="1Raw_Orders" sheetId="1" r:id="rId2"/>
+    <sheet name="1Raw_Products" sheetId="2" r:id="rId3"/>
+    <sheet name="1Raw_Property" sheetId="3" r:id="rId4"/>
+    <sheet name="1Mapping" sheetId="5" r:id="rId5"/>
+    <sheet name="1Raw_Orders_Refresh" sheetId="4" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1Raw_Orders'!$A$1:$E$3601</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1Raw_Orders'!$A$1:$E$3601</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="164">
   <si>
     <t>OrderID</t>
   </si>
@@ -354,9 +362,6 @@
     <t>Monitor</t>
   </si>
   <si>
-    <t>Prop ID</t>
-  </si>
-  <si>
     <t>PropertyCity</t>
   </si>
   <si>
@@ -473,14 +478,81 @@
   <si>
     <t>San Francisco</t>
   </si>
+  <si>
+    <t>Sales_Region</t>
+  </si>
+  <si>
+    <t>Region 1</t>
+  </si>
+  <si>
+    <t>Region 2</t>
+  </si>
+  <si>
+    <t>Region 3</t>
+  </si>
+  <si>
+    <t>Region 4</t>
+  </si>
+  <si>
+    <t>Pro_ID</t>
+  </si>
+  <si>
+    <t>Overall YTD Sales</t>
+  </si>
+  <si>
+    <t>Overall Monthly Sales (Y/Y)
+eg. May'16 vs May'15</t>
+  </si>
+  <si>
+    <t>Overall Monthly Sales (Y/Y)
+eg. May'16 vs April'16</t>
+  </si>
+  <si>
+    <t>Product_Comparision</t>
+  </si>
+  <si>
+    <t>Furnish &amp; Public</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>State YTD Sales</t>
+  </si>
+  <si>
+    <t>State Monthly Sales (Y/Y)
+eg. May'16 vs May'15</t>
+  </si>
+  <si>
+    <t>State Monthly Sales (Y/Y)
+eg. May'16 vs April'16</t>
+  </si>
+  <si>
+    <t>Product YTD Sales</t>
+  </si>
+  <si>
+    <t>Product Monthly Sales (Y/Y)
+eg. May'16 vs May'15</t>
+  </si>
+  <si>
+    <t>Product Monthly Sales (Y/Y)
+eg. May'16 vs April'16</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -507,9 +579,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -789,10 +867,464 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F483C7-DA9D-4877-B876-91001D05E047}">
+  <dimension ref="B4:R31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="H4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="N4" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="H14" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="N14" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="H24" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="N24" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B24:F31"/>
+    <mergeCell ref="H24:L31"/>
+    <mergeCell ref="N24:R31"/>
+    <mergeCell ref="B4:F11"/>
+    <mergeCell ref="H4:L11"/>
+    <mergeCell ref="N4:R11"/>
+    <mergeCell ref="B14:F21"/>
+    <mergeCell ref="H14:L21"/>
+    <mergeCell ref="N14:R21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3601"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -62025,7 +62557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1101691D-DB4A-4E88-B0B1-A96CC62F70AB}">
   <dimension ref="A1:D95"/>
   <sheetViews>
@@ -63376,12 +63908,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140ABBE5-B5F6-4E02-B10B-AA1CF8799C22}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -63393,13 +63925,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
         <v>107</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>108</v>
-      </c>
-      <c r="C1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -63407,10 +63939,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -63418,10 +63950,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
         <v>111</v>
-      </c>
-      <c r="C3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -63429,10 +63961,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
         <v>113</v>
-      </c>
-      <c r="C4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -63440,10 +63972,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" t="s">
         <v>115</v>
-      </c>
-      <c r="C5" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -63451,10 +63983,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
         <v>117</v>
-      </c>
-      <c r="C6" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -63462,10 +63994,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" t="s">
         <v>119</v>
-      </c>
-      <c r="C7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -63473,10 +64005,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" t="s">
         <v>121</v>
-      </c>
-      <c r="C8" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -63484,10 +64016,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" t="s">
         <v>123</v>
-      </c>
-      <c r="C9" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -63495,10 +64027,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" t="s">
         <v>125</v>
-      </c>
-      <c r="C10" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -63506,10 +64038,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -63517,10 +64049,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" t="s">
         <v>128</v>
-      </c>
-      <c r="C12" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -63528,10 +64060,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s">
         <v>130</v>
-      </c>
-      <c r="C13" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -63539,10 +64071,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" t="s">
         <v>132</v>
-      </c>
-      <c r="C14" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -63550,10 +64082,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" t="s">
         <v>134</v>
-      </c>
-      <c r="C15" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -63561,10 +64093,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" t="s">
         <v>136</v>
-      </c>
-      <c r="C16" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -63572,10 +64104,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" t="s">
         <v>138</v>
-      </c>
-      <c r="C17" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -63583,10 +64115,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" t="s">
         <v>140</v>
-      </c>
-      <c r="C18" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -63594,10 +64126,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" t="s">
         <v>142</v>
-      </c>
-      <c r="C19" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -63605,10 +64137,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" t="s">
         <v>144</v>
-      </c>
-      <c r="C20" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -63616,10 +64148,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -63627,7 +64159,216 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D224982-5DC9-4CBC-9D89-65435CCF724F}">
+  <dimension ref="B2:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655A310C-AB65-46A7-A4BF-C3875BD5B052}">
   <dimension ref="A1:E1401"/>
   <sheetViews>
